--- a/Optic.Api/wwwroot/template/Purchase.xlsx
+++ b/Optic.Api/wwwroot/template/Purchase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAB\OPTICA\ARQUITECTURA\ARQUITECTURA 1\optic\Optic.Api\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0AD499-1642-4A16-A93E-A4C6BD285505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC283F6B-7A67-4FEA-B1F4-7A0F85FFCC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7856CE4B-3B11-43C1-AC86-06E476F1C136}"/>
   </bookViews>
@@ -111,7 +111,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +154,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,10 +264,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -282,11 +294,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -297,73 +386,9 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,7 +421,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>647699</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>41673</xdr:rowOff>
     </xdr:to>
@@ -760,15 +785,16 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="2"/>
@@ -793,92 +819,92 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="L2" s="13" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="L2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="L3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="L4" s="14"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="L5" s="14"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F6" s="9"/>
-      <c r="L6" s="14"/>
+      <c r="F6" s="8"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="L7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="14"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -893,83 +919,83 @@
       <c r="F11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="14"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="15"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="14"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="15"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="H13" s="31"/>
+      <c r="L13" s="15"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="H14" s="12"/>
+      <c r="L14" s="15"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -984,29 +1010,32 @@
         <v>11</v>
       </c>
       <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="H16" s="12"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16" s="14"/>
+      <c r="L16" s="15"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
       <c r="P19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" selectLockedCells="1"/>
-  <mergeCells count="15">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
+  <mergeCells count="16">
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="L2:L16"/>
     <mergeCell ref="B14:D14"/>
@@ -1020,6 +1049,7 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
